--- a/R_notes_version_0/data/read_write/多个sheet-iris_data.xlsx
+++ b/R_notes_version_0/data/read_write/多个sheet-iris_data.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="setosa" sheetId="1" r:id="rId1"/>
-    <sheet name="versicolor" sheetId="2" r:id="rId2"/>
-    <sheet name="virginica" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="_1" sheetId="2" r:id="rId2"/>
+    <sheet name="_2" sheetId="3" r:id="rId3"/>
     <sheet name="iris" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -363,975 +363,1230 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>sepal_length</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sepal_width</t>
+          <t>Sepal.Length</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>petal_length</t>
+          <t>Sepal.Width</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>petal_width</t>
+          <t>Petal.Length</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>Petal.Width</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Species</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>5.1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>4.9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>4.7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>4.6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3.1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3.6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>5.4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3.9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.7</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.4</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>4.6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3.4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3.4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.5</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>4.4</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2.9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.4</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11">
         <v>4.9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3.1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.5</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.1</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12">
         <v>5.4</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3.7</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>4.8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3.4</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.6</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>4.8</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.4</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15">
         <v>4.3</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>5.8</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.2</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17">
         <v>5.7</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>4.4</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.4</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>5.4</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3.9</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19">
         <v>5.1</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3.5</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.4</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.3</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>5.7</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>3.8</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.7</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21">
         <v>5.1</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>3.8</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.5</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22">
         <v>5.4</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3.4</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.7</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>5.1</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>3.7</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.5</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.4</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24">
         <v>4.6</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>3.6</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.2</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25">
         <v>5.1</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>3.3</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.7</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26">
         <v>4.8</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>3.4</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.9</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.2</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.6</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.2</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>3.4</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.6</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.4</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29">
         <v>5.2</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3.5</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.2</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30">
         <v>5.2</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3.4</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.4</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.2</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>4.7</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3.2</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.6</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.2</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32">
         <v>4.8</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>3.1</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.6</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.2</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>5.4</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>3.4</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.5</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.4</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>5.2</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>4.1</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.5</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>5.5</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>4.2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.4</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.2</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36">
         <v>4.9</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>3.1</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.5</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3.2</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.2</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.2</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38">
         <v>5.5</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>3.5</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.3</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39">
         <v>4.9</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3.6</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.4</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.1</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40">
         <v>4.4</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.3</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.2</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41">
         <v>5.1</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>3.4</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.5</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.2</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3.5</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1.3</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.3</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43">
         <v>4.5</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>2.3</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1.3</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.3</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44">
         <v>4.4</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>3.2</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>1.3</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.2</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3.5</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>1.6</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.6</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46">
         <v>5.1</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>3.8</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1.9</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.4</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47">
         <v>4.8</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.4</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.3</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48">
         <v>5.1</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>3.8</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1.6</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.2</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49">
         <v>4.6</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>3.2</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1.4</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.2</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50">
         <v>5.3</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>3.7</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>1.5</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51">
         <v>5</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3.3</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>1.4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.2</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
@@ -1344,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1353,975 +1608,1230 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>sepal_length</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sepal_width</t>
+          <t>Sepal.Length</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>petal_length</t>
+          <t>Sepal.Width</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>petal_width</t>
+          <t>Petal.Length</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>Petal.Width</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Species</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4.7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.4</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>6.4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3.2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4.5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.5</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>6.9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.9</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.5</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>5.5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2.3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>6.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2.8</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4.6</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.5</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>5.7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.8</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4.5</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.3</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>6.3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3.3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4.7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>4.9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>6.6</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2.9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4.6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.3</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B11">
         <v>5.2</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2.7</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3.9</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.4</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3.5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>5.9</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4.2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B15">
         <v>6.1</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2.9</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4.7</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.4</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>5.6</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2.9</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3.6</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.3</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B17">
         <v>6.7</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3.1</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4.4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.4</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>5.6</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4.5</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.5</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B19">
         <v>5.8</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2.7</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4.1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>6.2</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2.2</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4.5</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.5</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B21">
         <v>5.6</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2.5</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>3.9</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.1</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B22">
         <v>5.9</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3.2</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4.8</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.8</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>6.1</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2.8</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B24">
         <v>6.3</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2.5</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4.9</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.5</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B25">
         <v>6.1</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2.8</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4.7</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.2</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B26">
         <v>6.4</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2.9</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4.3</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.3</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B27">
         <v>6.6</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4.4</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.4</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>6.8</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2.8</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4.8</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.4</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B29">
         <v>6.7</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.7</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2.9</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4.5</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.5</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>5.7</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>2.6</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3.5</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B32">
         <v>5.5</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2.4</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3.8</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.1</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>5.5</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>2.4</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.7</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>5.8</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>2.7</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3.9</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.2</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>6</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>2.7</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>5.1</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.6</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B36">
         <v>5.4</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>4.5</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.5</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>6</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3.4</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>4.5</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.6</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B38">
         <v>6.7</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>3.1</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>4.7</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1.5</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B39">
         <v>6.3</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2.3</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>4.4</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.3</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B40">
         <v>5.6</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>4.1</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.3</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B41">
         <v>5.5</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>2.5</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1.3</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B42">
         <v>5.5</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>2.6</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>4.4</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1.2</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B43">
         <v>6.1</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>4.6</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1.4</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B44">
         <v>5.8</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>2.6</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.2</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>2.3</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>3.3</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B46">
         <v>5.6</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>2.7</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>4.2</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1.3</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B47">
         <v>5.7</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>4.2</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1.2</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B48">
         <v>5.7</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>2.9</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>4.2</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1.3</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B49">
         <v>6.2</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>2.9</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>4.3</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1.3</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B50">
         <v>5.1</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>2.5</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1.1</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B51">
         <v>5.7</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>2.8</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>4.1</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1.3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
@@ -2334,7 +2844,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2343,975 +2853,1230 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>sepal_length</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sepal_width</t>
+          <t>Sepal.Length</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>petal_length</t>
+          <t>Sepal.Width</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>petal_width</t>
+          <t>Petal.Length</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>Petal.Width</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Species</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>6.3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.5</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>5.8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.7</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.9</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>7.1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5.9</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2.1</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>6.3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2.9</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.6</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.8</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>6.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2.2</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>7.6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6.6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2.1</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>4.9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2.5</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4.5</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.7</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>7.3</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6.3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.8</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>6.7</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2.5</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5.8</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B11">
         <v>7.2</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3.6</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6.1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.5</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B12">
         <v>6.5</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3.2</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5.1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>6.4</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2.7</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5.3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.9</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>6.8</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5.5</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.1</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B15">
         <v>5.7</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2.5</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>5.8</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2.8</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5.1</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B17">
         <v>6.4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3.2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5.3</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2.3</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>6.5</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5.5</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.8</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B19">
         <v>7.7</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3.8</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6.7</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2.2</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>7.7</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2.6</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6.9</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2.3</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B21">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2.2</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.5</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B22">
         <v>6.9</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3.2</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>5.7</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.3</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>5.6</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2.8</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4.9</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B24">
         <v>7.7</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2.8</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6.7</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B25">
         <v>6.3</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2.7</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4.9</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.8</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B26">
         <v>6.7</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>3.3</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>5.7</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2.1</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B27">
         <v>7.2</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>3.2</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.8</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>6.2</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2.8</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4.8</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.8</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B29">
         <v>6.1</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>4.9</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.8</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B30">
         <v>6.4</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2.8</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5.6</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2.1</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>7.2</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>5.8</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.6</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B32">
         <v>7.4</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2.8</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>6.1</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.9</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>7.9</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>3.8</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>6.4</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>6.4</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>2.8</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>5.6</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>2.2</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>6.3</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>2.8</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>5.1</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.5</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B36">
         <v>6.1</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2.6</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>5.6</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.4</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>7.7</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>6.1</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>2.3</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B38">
         <v>6.3</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>3.4</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>5.6</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>2.4</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B39">
         <v>6.4</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3.1</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>5.5</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.8</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B40">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>4.8</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.8</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B41">
         <v>6.9</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>3.1</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>5.4</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>2.1</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B42">
         <v>6.7</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3.1</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>5.6</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2.4</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B43">
         <v>6.9</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>3.1</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>5.1</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>2.3</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B44">
         <v>5.8</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>2.7</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>5.1</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.9</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B45">
         <v>6.8</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3.2</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>5.9</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>2.3</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B46">
         <v>6.7</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>3.3</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>5.7</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2.5</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B47">
         <v>6.7</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>5.2</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>2.3</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B48">
         <v>6.3</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>2.5</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>5</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1.9</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B49">
         <v>6.5</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>5.2</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B50">
         <v>6.2</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>3.4</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>5.4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>2.3</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B51">
         <v>5.9</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>5.1</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1.8</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
@@ -3324,7 +4089,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3333,2875 +4098,3630 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>sepal_length</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sepal_width</t>
+          <t>Sepal.Length</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>petal_length</t>
+          <t>Sepal.Width</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>petal_width</t>
+          <t>Petal.Length</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>Petal.Width</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Species</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>5.1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>4.9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>4.7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>4.6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3.1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3.6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>5.4</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3.9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.7</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.4</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>4.6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3.4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3.4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.5</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>4.4</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2.9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.4</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11">
         <v>4.9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3.1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.5</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.1</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12">
         <v>5.4</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3.7</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>4.8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3.4</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.6</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>4.8</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.4</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15">
         <v>4.3</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>5.8</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.2</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17">
         <v>5.7</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>4.4</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.4</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>5.4</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3.9</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19">
         <v>5.1</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3.5</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.4</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.3</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>5.7</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>3.8</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.7</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21">
         <v>5.1</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>3.8</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.5</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22">
         <v>5.4</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3.4</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.7</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>5.1</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>3.7</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.5</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.4</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24">
         <v>4.6</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>3.6</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.2</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25">
         <v>5.1</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>3.3</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.7</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26">
         <v>4.8</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>3.4</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.9</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.2</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.6</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.2</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>3.4</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.6</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.4</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29">
         <v>5.2</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3.5</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.2</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30">
         <v>5.2</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3.4</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.4</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.2</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>4.7</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3.2</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.6</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.2</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32">
         <v>4.8</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>3.1</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.6</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.2</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>5.4</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>3.4</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.5</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.4</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>5.2</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>4.1</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.5</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>5.5</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>4.2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.4</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.2</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36">
         <v>4.9</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>3.1</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.5</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3.2</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.2</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.2</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38">
         <v>5.5</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>3.5</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.3</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39">
         <v>4.9</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3.6</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.4</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.1</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40">
         <v>4.4</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.3</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.2</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41">
         <v>5.1</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>3.4</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.5</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.2</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3.5</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1.3</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.3</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43">
         <v>4.5</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>2.3</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1.3</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.3</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44">
         <v>4.4</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>3.2</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>1.3</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.2</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3.5</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>1.6</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.6</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46">
         <v>5.1</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>3.8</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1.9</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.4</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47">
         <v>4.8</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.4</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.3</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48">
         <v>5.1</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>3.8</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1.6</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.2</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49">
         <v>4.6</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>3.2</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1.4</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.2</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50">
         <v>5.3</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>3.7</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>1.5</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51">
         <v>5</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3.3</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>1.4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.2</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>setosa</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52">
         <v>7</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>3.2</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>4.7</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53">
         <v>6.4</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>3.2</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>4.5</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1.5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54">
         <v>6.9</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>3.1</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>4.9</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1.5</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55">
         <v>5.5</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>2.3</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1.3</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56">
         <v>6.5</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>2.8</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>4.6</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1.5</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57">
         <v>5.7</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>2.8</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>4.5</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1.3</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58">
         <v>6.3</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>3.3</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>4.7</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>1.6</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59">
         <v>4.9</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>2.4</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>3.3</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>1</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60">
         <v>6.6</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>2.9</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>4.6</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1.3</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61">
         <v>5.2</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>2.7</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>3.9</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1.4</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62">
         <v>5</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>2</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>3.5</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63">
         <v>5.9</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>3</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>4.2</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>1.5</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64">
         <v>6</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>2.2</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>4</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>1</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65">
         <v>6.1</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>2.9</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>4.7</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>1.4</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66">
         <v>5.6</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>2.9</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>3.6</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>1.3</v>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67">
         <v>6.7</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>3.1</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>4.4</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1.4</v>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68">
         <v>5.6</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>3</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>4.5</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1.5</v>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69">
         <v>5.8</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>2.7</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>4.1</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>1</v>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70">
         <v>6.2</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>2.2</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>4.5</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1.5</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71">
         <v>5.6</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>2.5</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>3.9</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>1.1</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72">
         <v>5.9</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>3.2</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>4.8</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1.8</v>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73">
         <v>6.1</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>2.8</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>4</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>1.3</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74">
         <v>6.3</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>2.5</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>4.9</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>1.5</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75">
         <v>6.1</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>2.8</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>4.7</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1.2</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76">
         <v>6.4</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>2.9</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>4.3</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>1.3</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77">
         <v>6.6</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>3</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>4.4</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>1.4</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78">
         <v>6.8</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>2.8</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>4.8</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>1.4</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79">
         <v>6.7</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>3</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>5</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>1.7</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80">
         <v>6</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>2.9</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>4.5</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>1.5</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81">
         <v>5.7</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>2.6</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>3.5</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>1</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82">
         <v>5.5</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>2.4</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>3.8</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>1.1</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83">
         <v>5.5</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>2.4</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>3.7</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>1</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84">
         <v>5.8</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>2.7</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>3.9</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>1.2</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85">
         <v>6</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>2.7</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>5.1</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>1.6</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86">
         <v>5.4</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>3</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>4.5</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>1.5</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87">
         <v>6</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>3.4</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>4.5</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>1.6</v>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88">
         <v>6.7</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>3.1</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>4.7</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>1.5</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89">
         <v>6.3</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>2.3</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>4.4</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>1.3</v>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90">
         <v>5.6</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>3</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>4.1</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>1.3</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91">
         <v>5.5</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>2.5</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>4</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>1.3</v>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92">
         <v>5.5</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>2.6</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>4.4</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>1.2</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93">
         <v>6.1</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>4.6</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>1.4</v>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94">
         <v>5.8</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>2.6</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>4</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>1.2</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95">
         <v>5</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>2.3</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>3.3</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96">
         <v>5.6</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>2.7</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>4.2</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>1.3</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97">
         <v>5.7</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>3</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>4.2</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>1.2</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98">
         <v>5.7</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>2.9</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>4.2</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>1.3</v>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99">
         <v>6.2</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>2.9</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>4.3</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>1.3</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100">
         <v>5.1</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>2.5</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>3</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>1.1</v>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101">
         <v>5.7</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>2.8</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>4.1</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>1.3</v>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>versicolor</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B102">
         <v>6.3</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>3.3</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>6</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>2.5</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B103">
         <v>5.8</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>2.7</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>5.1</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>1.9</v>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B104">
         <v>7.1</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>3</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>5.9</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>2.1</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B105">
         <v>6.3</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>2.9</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>5.6</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>1.8</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B106">
         <v>6.5</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>3</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>5.8</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>2.2</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B107">
         <v>7.6</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>3</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>6.6</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>2.1</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B108">
         <v>4.9</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>2.5</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>4.5</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>1.7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B109">
         <v>7.3</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>2.9</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>6.3</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>1.8</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B110">
         <v>6.7</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>2.5</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>5.8</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>1.8</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B111">
         <v>7.2</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>3.6</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>6.1</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>2.5</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B112">
         <v>6.5</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>3.2</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>5.1</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>2</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B113">
         <v>6.4</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>2.7</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>5.3</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>1.9</v>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B114">
         <v>6.8</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>5.5</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>2.1</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B115">
         <v>5.7</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>2.5</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>5</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>2</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B116">
         <v>5.8</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>2.8</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>5.1</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>2.4</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B117">
         <v>6.4</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>3.2</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>5.3</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>2.3</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B118">
         <v>6.5</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>3</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>5.5</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>1.8</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B119">
         <v>7.7</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>3.8</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>6.7</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>2.2</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B120">
         <v>7.7</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>2.6</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>6.9</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>2.3</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B121">
         <v>6</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>2.2</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>5</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>1.5</v>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B122">
         <v>6.9</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>3.2</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>5.7</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>2.3</v>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B123">
         <v>5.6</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>2.8</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>4.9</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>2</v>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B124">
         <v>7.7</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>2.8</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>6.7</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>2</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B125">
         <v>6.3</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>2.7</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>4.9</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>1.8</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B126">
         <v>6.7</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>3.3</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>5.7</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>2.1</v>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B127">
         <v>7.2</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>3.2</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>6</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>1.8</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B128">
         <v>6.2</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>2.8</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>4.8</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>1.8</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B129">
         <v>6.1</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>3</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>4.9</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>1.8</v>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B130">
         <v>6.4</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>2.8</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>5.6</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>2.1</v>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B131">
         <v>7.2</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>3</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>5.8</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>1.6</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B132">
         <v>7.4</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>2.8</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>6.1</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>1.9</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B133">
         <v>7.9</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>3.8</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>6.4</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>2</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B134">
         <v>6.4</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>2.8</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>5.6</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>2.2</v>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B135">
         <v>6.3</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>2.8</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>5.1</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>1.5</v>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B136">
         <v>6.1</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>2.6</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>5.6</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>1.4</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B137">
         <v>7.7</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>3</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>6.1</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>2.3</v>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B138">
         <v>6.3</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>3.4</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>5.6</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>2.4</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B139">
         <v>6.4</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>3.1</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>5.5</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>1.8</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B140">
         <v>6</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>3</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>4.8</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>1.8</v>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B141">
         <v>6.9</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>3.1</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>5.4</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>2.1</v>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B142">
         <v>6.7</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>3.1</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>5.6</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>2.4</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B143">
         <v>6.9</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>3.1</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>5.1</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>2.3</v>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B144">
         <v>5.8</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>2.7</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>5.1</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>1.9</v>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B145">
         <v>6.8</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>3.2</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>5.9</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>2.3</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146">
         <v>6.7</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>3.3</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>5.7</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>2.5</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147">
         <v>6.7</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>3</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>5.2</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>2.3</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148">
         <v>6.3</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>2.5</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>5</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>1.9</v>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149">
         <v>6.5</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>3</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>5.2</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>2</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150">
         <v>6.2</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>3.4</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>5.4</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>2.3</v>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151">
         <v>5.9</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>3</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>5.1</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>1.8</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>virginica</t>
         </is>
